--- a/888repair/Excel/ProblemList.xlsx
+++ b/888repair/Excel/ProblemList.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="RersonalProblem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,17 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>请修编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反应人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
+    <t>执行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大楼别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,31 +45,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大楼别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
+    <t>空间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>反应内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填表时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完单时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,39 +428,42 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
